--- a/output/GA_schedule.xlsx
+++ b/output/GA_schedule.xlsx
@@ -463,169 +463,169 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E3" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B4" t="n">
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E6" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
         <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B9" t="n">
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E9" t="n">
-        <v>10</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E10" t="n">
-        <v>17</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E11" t="n">
         <v>25</v>
@@ -633,19 +633,19 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E12" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13">
@@ -653,33 +653,33 @@
         <v>16</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E13" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="E14" t="n">
-        <v>25</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15">
@@ -687,16 +687,16 @@
         <v>18</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E15" t="n">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16">
@@ -704,259 +704,259 @@
         <v>18</v>
       </c>
       <c r="B16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E16" t="n">
-        <v>43</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="E17" t="n">
-        <v>23</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="E18" t="n">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="E19" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="E20" t="n">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E21" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="E22" t="n">
-        <v>68</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="E23" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="E24" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>70</v>
       </c>
       <c r="E25" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B26" t="n">
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="E26" t="n">
-        <v>35</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B27" t="n">
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E27" t="n">
-        <v>40</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B28" t="n">
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="E28" t="n">
-        <v>44</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="E29" t="n">
-        <v>48</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B30" t="n">
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="E30" t="n">
-        <v>63</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B31" t="n">
         <v>1</v>
@@ -965,15 +965,15 @@
         <v>2</v>
       </c>
       <c r="D31" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E31" t="n">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B32" t="n">
         <v>2</v>
@@ -982,32 +982,32 @@
         <v>4</v>
       </c>
       <c r="D32" t="n">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E32" t="n">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B33" t="n">
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="E33" t="n">
-        <v>59</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B34" t="n">
         <v>1</v>
@@ -1016,66 +1016,66 @@
         <v>1</v>
       </c>
       <c r="D34" t="n">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="E34" t="n">
-        <v>65</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B35" t="n">
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E35" t="n">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B36" t="n">
         <v>1</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E36" t="n">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B37" t="n">
         <v>2</v>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="E37" t="n">
-        <v>91</v>
+        <v>105</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B38" t="n">
         <v>0</v>
@@ -1084,112 +1084,112 @@
         <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E38" t="n">
-        <v>84</v>
+        <v>95</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B39" t="n">
         <v>1</v>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E39" t="n">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B40" t="n">
         <v>2</v>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E40" t="n">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B41" t="n">
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="E41" t="n">
-        <v>91</v>
+        <v>117</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B42" t="n">
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="E42" t="n">
-        <v>107</v>
+        <v>124</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B43" t="n">
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="E43" t="n">
-        <v>112</v>
+        <v>129</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B44" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D44" t="n">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="E44" t="n">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="45">
@@ -1197,16 +1197,16 @@
         <v>1</v>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="E45" t="n">
-        <v>105</v>
+        <v>134</v>
       </c>
     </row>
     <row r="46">
@@ -1214,84 +1214,84 @@
         <v>1</v>
       </c>
       <c r="B46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
-        <v>109</v>
+        <v>134</v>
       </c>
       <c r="E46" t="n">
-        <v>124</v>
+        <v>142</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="E47" t="n">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
-        <v>85</v>
+        <v>137</v>
       </c>
       <c r="E48" t="n">
-        <v>93</v>
+        <v>143</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C49" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
-        <v>107</v>
+        <v>144</v>
       </c>
       <c r="E49" t="n">
-        <v>112</v>
+        <v>150</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C50" t="n">
         <v>2</v>
       </c>
       <c r="D50" t="n">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="E50" t="n">
-        <v>136</v>
+        <v>157</v>
       </c>
     </row>
     <row r="51">
@@ -1299,16 +1299,16 @@
         <v>9</v>
       </c>
       <c r="B51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="E51" t="n">
-        <v>150</v>
+        <v>166</v>
       </c>
     </row>
     <row r="52">
@@ -1316,67 +1316,67 @@
         <v>9</v>
       </c>
       <c r="B52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D52" t="n">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="E52" t="n">
-        <v>159</v>
+        <v>173</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="E53" t="n">
-        <v>166</v>
+        <v>178</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C54" t="n">
         <v>4</v>
       </c>
       <c r="D54" t="n">
-        <v>134</v>
+        <v>178</v>
       </c>
       <c r="E54" t="n">
-        <v>145</v>
+        <v>188</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C55" t="n">
         <v>2</v>
       </c>
       <c r="D55" t="n">
-        <v>152</v>
+        <v>188</v>
       </c>
       <c r="E55" t="n">
-        <v>161</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -1436,10 +1436,10 @@
         <v>40</v>
       </c>
       <c r="D2" t="n">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="E2" t="n">
-        <v>96</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3">
@@ -1453,10 +1453,10 @@
         <v>100</v>
       </c>
       <c r="D3" t="n">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="E3" t="n">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4">
@@ -1470,10 +1470,10 @@
         <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>5</v>
+        <v>78</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
@@ -1487,10 +1487,10 @@
         <v>15</v>
       </c>
       <c r="D5" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -1504,10 +1504,10 @@
         <v>30</v>
       </c>
       <c r="D6" t="n">
-        <v>25</v>
+        <v>129</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7">
@@ -1521,10 +1521,10 @@
         <v>50</v>
       </c>
       <c r="D7" t="n">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="E7" t="n">
-        <v>41</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8">
@@ -1538,10 +1538,10 @@
         <v>70</v>
       </c>
       <c r="D8" t="n">
-        <v>161</v>
+        <v>40</v>
       </c>
       <c r="E8" t="n">
-        <v>91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1555,10 +1555,10 @@
         <v>55</v>
       </c>
       <c r="D9" t="n">
-        <v>94</v>
+        <v>150</v>
       </c>
       <c r="E9" t="n">
-        <v>39</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10">
@@ -1572,10 +1572,10 @@
         <v>45</v>
       </c>
       <c r="D10" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -1589,10 +1589,10 @@
         <v>80</v>
       </c>
       <c r="D11" t="n">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="E11" t="n">
-        <v>86</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12">
@@ -1606,10 +1606,10 @@
         <v>60</v>
       </c>
       <c r="D12" t="n">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="E12" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1623,10 +1623,10 @@
         <v>35</v>
       </c>
       <c r="D13" t="n">
-        <v>19</v>
+        <v>83</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14">
@@ -1640,10 +1640,10 @@
         <v>50</v>
       </c>
       <c r="D14" t="n">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15">
@@ -1657,10 +1657,10 @@
         <v>40</v>
       </c>
       <c r="D15" t="n">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="E15" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1674,10 +1674,10 @@
         <v>90</v>
       </c>
       <c r="D16" t="n">
-        <v>80</v>
+        <v>198</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17">
@@ -1691,10 +1691,10 @@
         <v>65</v>
       </c>
       <c r="D17" t="n">
-        <v>117</v>
+        <v>75</v>
       </c>
       <c r="E17" t="n">
-        <v>52</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18">
@@ -1708,7 +1708,7 @@
         <v>50</v>
       </c>
       <c r="D18" t="n">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1725,7 +1725,7 @@
         <v>70</v>
       </c>
       <c r="D19" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -1742,7 +1742,7 @@
         <v>60</v>
       </c>
       <c r="D20" t="n">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -1759,10 +1759,10 @@
         <v>85</v>
       </c>
       <c r="D21" t="n">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E21" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23">
@@ -1772,7 +1772,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>166</v>
+        <v>198</v>
       </c>
     </row>
     <row r="24">
@@ -1782,7 +1782,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>495</v>
+        <v>742</v>
       </c>
     </row>
   </sheetData>
